--- a/posesiones/1381244.xlsx
+++ b/posesiones/1381244.xlsx
@@ -1805,10 +1805,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1999,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>16</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>26</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>5</v>
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>23</v>
@@ -2305,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R13">
         <v>13</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2405,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R15">
         <v>19</v>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2508,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R17">
         <v>8</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2752,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R22">
         <v>18</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2902,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>32</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3005,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R27">
         <v>15</v>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R28">
         <v>17</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3349,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R34">
         <v>11</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3452,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R36">
         <v>7</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3646,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R40">
         <v>15</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R42">
         <v>4</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3846,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R44">
         <v>17</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R46">
         <v>20</v>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4049,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R48">
         <v>22</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R50">
         <v>13</v>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R53">
         <v>19</v>
@@ -4352,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R54">
         <v>10</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4455,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R56">
         <v>7</v>
@@ -4508,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R57">
         <v>4</v>
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4605,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4658,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R60">
         <v>15</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4802,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4852,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R64">
         <v>12</v>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5184,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R71">
         <v>13</v>
@@ -5237,7 +5237,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R72">
         <v>19</v>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5340,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R74">
         <v>4</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5440,7 +5440,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R76">
         <v>5</v>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5684,7 +5684,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R81">
         <v>2</v>
@@ -5737,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R82">
         <v>20</v>
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5881,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5928,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6025,7 +6025,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R88">
         <v>11</v>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6172,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6222,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R92">
         <v>23</v>
@@ -6275,7 +6275,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R93">
         <v>19</v>
@@ -6328,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6378,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R95">
         <v>24</v>
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6481,7 +6481,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R97">
         <v>13</v>
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6581,7 +6581,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R99">
         <v>17</v>
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6684,7 +6684,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R101">
         <v>8</v>
@@ -6734,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6781,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6828,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6922,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6969,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7066,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R109">
         <v>25</v>
@@ -7116,7 +7116,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7163,7 +7163,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7257,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7445,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7492,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7542,7 +7542,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R119">
         <v>15</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7639,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7686,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7921,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R128">
         <v>11</v>
@@ -8027,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R129">
         <v>3</v>
@@ -8071,10 +8071,10 @@
         <v>1</v>
       </c>
       <c r="P130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q130">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8121,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8262,7 +8262,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8356,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8403,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8491,10 +8491,10 @@
         <v>1</v>
       </c>
       <c r="P139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q139">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8544,7 +8544,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R140">
         <v>11</v>
@@ -8597,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8647,7 +8647,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R142">
         <v>9</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8750,7 +8750,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R144">
         <v>12</v>
@@ -8800,7 +8800,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8850,7 +8850,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R146">
         <v>25</v>
@@ -8903,7 +8903,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R147">
         <v>18</v>
@@ -8953,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9003,7 +9003,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R149">
         <v>9</v>
@@ -9056,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R150">
         <v>15</v>
@@ -9109,7 +9109,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R151">
         <v>21</v>
@@ -9162,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9212,7 +9212,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R153">
         <v>15</v>
@@ -9265,7 +9265,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9315,7 +9315,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R155">
         <v>14</v>
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9418,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R157">
         <v>11</v>
@@ -9471,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9612,7 +9612,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9753,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9803,7 +9803,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R165">
         <v>6</v>
@@ -9856,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9906,7 +9906,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R167">
         <v>12</v>
@@ -9956,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10003,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10053,7 +10053,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R170">
         <v>12</v>
@@ -10103,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10153,7 +10153,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R172">
         <v>21</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10253,7 +10253,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10303,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10353,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R176">
         <v>20</v>
@@ -10406,7 +10406,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R177">
         <v>15</v>
@@ -10459,7 +10459,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R178">
         <v>21</v>
@@ -10512,7 +10512,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R179">
         <v>26</v>
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10612,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10753,7 +10753,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10800,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10897,7 +10897,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R187">
         <v>11</v>
@@ -10947,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10997,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R189">
         <v>15</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11100,7 +11100,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R191">
         <v>8</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11194,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11244,7 +11244,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R194">
         <v>23</v>
@@ -11297,7 +11297,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R195">
         <v>8</v>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11397,7 +11397,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R197">
         <v>4</v>
@@ -11447,7 +11447,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11494,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11544,7 +11544,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11594,7 +11594,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R201">
         <v>26</v>
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11691,7 +11691,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11744,7 +11744,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R204">
         <v>2</v>
@@ -11794,7 +11794,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11841,7 +11841,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11891,7 +11891,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R207">
         <v>0</v>
@@ -11941,7 +11941,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11988,7 +11988,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12038,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R210">
         <v>8</v>
@@ -12088,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12185,7 +12185,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12235,7 +12235,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R214">
         <v>11</v>
@@ -12288,7 +12288,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12338,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R216">
         <v>7</v>
@@ -12391,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12441,7 +12441,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R218">
         <v>15</v>
@@ -12491,7 +12491,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12538,7 +12538,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12585,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12679,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12726,7 +12726,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12776,7 +12776,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R225">
         <v>23</v>
@@ -12829,7 +12829,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12879,7 +12879,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R227">
         <v>13</v>
@@ -12929,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12979,7 +12979,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R229">
         <v>17</v>
@@ -13029,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13079,7 +13079,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R231">
         <v>14</v>
@@ -13132,7 +13132,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13182,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R233">
         <v>9</v>
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13276,7 +13276,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13323,7 +13323,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13420,7 +13420,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13470,7 +13470,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R239">
         <v>12</v>
@@ -13523,7 +13523,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R240">
         <v>16</v>
@@ -13573,7 +13573,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13623,7 +13623,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R242">
         <v>13</v>
@@ -13676,7 +13676,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R243">
         <v>19</v>
@@ -13729,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13779,7 +13779,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R245">
         <v>13</v>
@@ -13829,7 +13829,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13876,7 +13876,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13923,7 +13923,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13970,7 +13970,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14017,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14064,7 +14064,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14111,7 +14111,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14158,7 +14158,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14205,7 +14205,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14255,7 +14255,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R255">
         <v>18</v>
@@ -14299,10 +14299,10 @@
         <v>1</v>
       </c>
       <c r="P256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q256">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14349,7 +14349,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14396,7 +14396,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14443,7 +14443,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14531,10 +14531,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q261">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14581,7 +14581,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14628,7 +14628,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14675,7 +14675,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14722,7 +14722,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14772,7 +14772,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14822,7 +14822,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R267">
         <v>26</v>
@@ -14875,7 +14875,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14925,7 +14925,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R269">
         <v>15</v>
@@ -14978,7 +14978,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R270">
         <v>11</v>
@@ -15031,7 +15031,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R271">
         <v>15</v>
@@ -15084,7 +15084,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R272">
         <v>19</v>
@@ -15134,7 +15134,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R273">
         <v>27</v>
@@ -15184,7 +15184,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15234,7 +15234,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15281,7 +15281,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15381,7 +15381,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R278">
         <v>33</v>
@@ -15431,7 +15431,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15478,7 +15478,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15525,7 +15525,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15575,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15625,7 +15625,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R283">
         <v>27</v>
@@ -15678,7 +15678,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R284">
         <v>12</v>
@@ -15728,7 +15728,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15778,7 +15778,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R286">
         <v>16</v>
@@ -15831,7 +15831,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R287">
         <v>14</v>
@@ -15878,7 +15878,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15928,7 +15928,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R289">
         <v>14</v>
@@ -15978,7 +15978,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16028,7 +16028,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R291">
         <v>6</v>
@@ -16078,7 +16078,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16128,7 +16128,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R293">
         <v>16</v>
@@ -16178,7 +16178,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16225,7 +16225,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16272,7 +16272,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16322,7 +16322,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R297">
         <v>19</v>
@@ -16375,7 +16375,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16425,7 +16425,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R299">
         <v>15</v>
@@ -16475,7 +16475,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16525,7 +16525,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R301">
         <v>11</v>
@@ -16578,7 +16578,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R302">
         <v>12</v>
@@ -16631,7 +16631,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R303">
         <v>13</v>
@@ -16681,7 +16681,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16728,7 +16728,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16775,7 +16775,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16822,7 +16822,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16869,7 +16869,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16916,7 +16916,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17013,7 +17013,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R311">
         <v>21</v>
@@ -17063,7 +17063,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17110,7 +17110,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17157,7 +17157,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17207,7 +17207,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17254,7 +17254,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17304,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17354,7 +17354,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R318">
         <v>22</v>
@@ -17407,7 +17407,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17457,7 +17457,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R320">
         <v>11</v>
@@ -17510,7 +17510,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R321">
         <v>18</v>
@@ -17563,7 +17563,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17610,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17657,7 +17657,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17707,7 +17707,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R325">
         <v>24</v>
@@ -17757,7 +17757,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17807,7 +17807,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R327">
         <v>11</v>
@@ -17860,7 +17860,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R328">
         <v>11</v>
@@ -17910,7 +17910,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17957,7 +17957,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18004,7 +18004,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18101,7 +18101,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R333">
         <v>0</v>
@@ -18154,7 +18154,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R334">
         <v>20</v>
@@ -18207,7 +18207,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R335">
         <v>16</v>
@@ -18260,7 +18260,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R336">
         <v>16</v>
@@ -18310,7 +18310,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18360,7 +18360,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R338">
         <v>11</v>
@@ -18413,7 +18413,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18460,7 +18460,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18510,7 +18510,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18560,7 +18560,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R342">
         <v>7</v>
@@ -18607,7 +18607,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18654,7 +18654,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18701,7 +18701,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18748,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18795,7 +18795,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18845,7 +18845,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R348">
         <v>13</v>
@@ -18895,7 +18895,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18942,7 +18942,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18989,7 +18989,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19039,7 +19039,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R352">
         <v>14</v>
@@ -19092,7 +19092,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19142,7 +19142,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R354">
         <v>26</v>
@@ -19192,7 +19192,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19242,7 +19242,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R356">
         <v>26</v>
@@ -19295,7 +19295,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19342,7 +19342,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19389,7 +19389,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19436,7 +19436,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19483,7 +19483,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19533,7 +19533,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R362">
         <v>11</v>
@@ -19583,7 +19583,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19630,7 +19630,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19680,7 +19680,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R365">
         <v>0</v>
@@ -19733,7 +19733,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R366">
         <v>0</v>
@@ -19777,10 +19777,10 @@
         <v>1</v>
       </c>
       <c r="P367" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q367">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19827,7 +19827,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19874,7 +19874,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19968,7 +19968,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20015,7 +20015,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20062,7 +20062,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20103,10 +20103,10 @@
         <v>1</v>
       </c>
       <c r="P374" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q374">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20153,7 +20153,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20200,7 +20200,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20250,7 +20250,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R377">
         <v>34</v>
@@ -20303,7 +20303,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R378">
         <v>21</v>
@@ -20353,7 +20353,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20400,7 +20400,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20447,7 +20447,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20497,7 +20497,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R382">
         <v>15</v>
@@ -20550,7 +20550,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20600,7 +20600,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R384">
         <v>15</v>
@@ -20653,7 +20653,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20703,7 +20703,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R386">
         <v>5</v>
@@ -20753,7 +20753,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20803,7 +20803,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R388">
         <v>15</v>
@@ -20856,7 +20856,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R389">
         <v>22</v>
@@ -20909,7 +20909,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20956,7 +20956,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21003,7 +21003,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21053,7 +21053,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R393">
         <v>14</v>
@@ -21106,7 +21106,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21156,7 +21156,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R395">
         <v>8</v>
@@ -21206,7 +21206,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21253,7 +21253,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21300,7 +21300,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21350,7 +21350,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R399">
         <v>10</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R400">
         <v>14</v>
@@ -21453,7 +21453,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21503,7 +21503,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R402">
         <v>8</v>
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21603,7 +21603,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R404">
         <v>19</v>
@@ -21656,7 +21656,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21706,7 +21706,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R406">
         <v>12</v>
@@ -21759,7 +21759,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R407">
         <v>22</v>
@@ -21809,7 +21809,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21859,7 +21859,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21906,7 +21906,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21953,7 +21953,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22000,7 +22000,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22047,7 +22047,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22094,7 +22094,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22141,7 +22141,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22191,7 +22191,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R416">
         <v>18</v>
@@ -22244,7 +22244,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22294,7 +22294,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R418">
         <v>5</v>
@@ -22347,7 +22347,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R419">
         <v>16</v>
@@ -22400,7 +22400,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22450,7 +22450,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R421">
         <v>15</v>
@@ -22503,7 +22503,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22553,7 +22553,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R423">
         <v>19</v>
@@ -22600,7 +22600,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22650,7 +22650,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R425">
         <v>19</v>
@@ -22700,7 +22700,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22797,7 +22797,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22847,7 +22847,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R429">
         <v>21</v>
@@ -22900,7 +22900,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R430">
         <v>17</v>
@@ -22953,7 +22953,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R431">
         <v>17</v>
@@ -23006,7 +23006,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R432">
         <v>16</v>
@@ -23056,7 +23056,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23106,7 +23106,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R434">
         <v>19</v>
@@ -23159,7 +23159,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23209,7 +23209,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R436">
         <v>15</v>
@@ -23262,7 +23262,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23312,7 +23312,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R438">
         <v>8</v>
@@ -23365,7 +23365,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23415,7 +23415,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R440">
         <v>26</v>
@@ -23465,7 +23465,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23559,7 +23559,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23606,7 +23606,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23656,7 +23656,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R445">
         <v>21</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23756,7 +23756,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23806,7 +23806,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23856,7 +23856,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R449">
         <v>26</v>
@@ -23906,7 +23906,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23997,7 +23997,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24044,7 +24044,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24094,7 +24094,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R454">
         <v>9</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24194,7 +24194,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R456">
         <v>17</v>
@@ -24247,7 +24247,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24297,7 +24297,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R458">
         <v>13</v>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24394,7 +24394,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24441,7 +24441,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24535,7 +24535,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24585,7 +24585,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R464">
         <v>36</v>
@@ -24635,7 +24635,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24679,7 +24679,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24726,7 +24726,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24820,7 +24820,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24867,7 +24867,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24917,7 +24917,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R471">
         <v>9</v>
@@ -24970,7 +24970,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R472">
         <v>0</v>
@@ -25014,10 +25014,10 @@
         <v>1</v>
       </c>
       <c r="P473" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q473">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
